--- a/docPDS/Rubrica de Avance.xlsx
+++ b/docPDS/Rubrica de Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="985" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId2"/>
@@ -262,13 +262,13 @@
   </sheetPr>
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F24" activeCellId="0" sqref="F24"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="12.2755102040816"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="13.4285714285714"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -363,7 +363,7 @@
       <c r="L5" s="1"/>
       <c r="M5" s="8"/>
     </row>
-    <row r="6" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="n">
         <v>5</v>
       </c>
@@ -372,7 +372,7 @@
         <v>8</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -578,7 +578,7 @@
       <c r="L16" s="1"/>
       <c r="M16" s="8"/>
     </row>
-    <row r="17" customFormat="false" ht="22.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
         <v>16</v>
       </c>
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
@@ -627,7 +627,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -760,19 +760,19 @@
         <v>24</v>
       </c>
       <c r="D26" s="9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D27" s="9" t="n">
         <f aca="false">SUM(D3:D26)</f>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D28" s="10" t="n">
         <f aca="false">SUM(D3:D26)/24</f>
-        <v>0.75</v>
+        <v>0.916666666666667</v>
       </c>
     </row>
   </sheetData>
